--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-19.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-01-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G211"/>
+  <dimension ref="A1:G145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2758,10 +2758,8 @@
           <t>65K</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88">
@@ -2779,10 +2777,8 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
@@ -2800,10 +2796,8 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90">
@@ -2825,10 +2819,8 @@
         </is>
       </c>
       <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
@@ -2854,10 +2846,8 @@
       </c>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G91" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="92">
@@ -2883,10 +2873,8 @@
       </c>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G92" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="93">
@@ -2912,10 +2900,8 @@
       </c>
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr"/>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G93" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="94">
@@ -2941,10 +2927,8 @@
       </c>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G94" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="95">
@@ -2962,10 +2946,8 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr"/>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
@@ -2983,10 +2965,8 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97">
@@ -3004,151 +2984,121 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G97" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Friday January 10 2025</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr"/>
+          <t>10:30 AM</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
+        </is>
+      </c>
       <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>-0.632M</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Non Farm PayrollsDEC</t>
+          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>160K</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>200K</t>
-        </is>
-      </c>
+          <t>0.045M</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Unemployment RateDEC</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>4.30%</t>
-        </is>
-      </c>
+      <c r="D100" t="inlineStr"/>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings MoMDEC</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr">
         <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+          <t>4.190%</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Average Hourly Earnings YoY</t>
+          <t>Fed Golsbee Speech</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr">
         <is>
           <t>2</t>
@@ -3158,31 +3108,15 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Participation RateDEC</t>
-        </is>
-      </c>
+          <t>Thursday January 16 2025</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr"/>
       <c r="C103" t="inlineStr"/>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>62.5%</t>
-        </is>
-      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>62.8%</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3192,28 +3126,28 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Average Weekly HoursDEC</t>
+          <t>Retail Sales MoMDEC</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>34.3</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3225,24 +3159,24 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Government PayrollsDEC</t>
+          <t>Export Prices MoMDEC</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr">
         <is>
-          <t>33K</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>15K</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3254,28 +3188,24 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Manufacturing PayrollsDEC</t>
+          <t>Import Prices MoMDEC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
       <c r="D106" t="inlineStr">
         <is>
-          <t>22K</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>5K</t>
-        </is>
-      </c>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>29K</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3287,28 +3217,24 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Nonfarm Payrolls PrivateDEC</t>
+          <t>Initial Jobless ClaimsJAN/11</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr">
         <is>
-          <t>194K</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>135K</t>
-        </is>
-      </c>
+          <t>201K</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>185K</t>
+          <t>209.0K</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3320,81 +3246,81 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>U-6 Unemployment Rate</t>
+          <t>Philadelphia Fed Manufacturing IndexJAN</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr">
         <is>
-          <t>7.8%</t>
+          <t>-16.4</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>7.9%</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelJAN</t>
+          <t>Retail Sales Ex Autos MoMDEC</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>73.8</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelJAN</t>
+          <t>Continuing Jobless ClaimsJAN/04</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>1867K</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1870.0K</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -3406,24 +3332,24 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelJAN</t>
+          <t>Export Prices YoYDEC</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>73.3</t>
+          <t>0.8%</t>
         </is>
       </c>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -3435,24 +3361,24 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelJAN</t>
+          <t>Import Prices YoYDEC</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr">
         <is>
-          <t>75.1</t>
+          <t>1.3%</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>1.6%</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -3464,24 +3390,24 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelJAN</t>
+          <t>Jobless Claims 4-week AverageJAN/11</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2.8%</t>
+          <t>213K</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>3.0%</t>
+          <t>215.0K</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -3493,16 +3419,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>WASDE Report</t>
+          <t>Philly Fed Business ConditionsJAN</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>30.7</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
@@ -3514,18 +3444,18 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountJAN/10</t>
+          <t>Philly Fed CAPEX IndexJAN</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>18.8</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -3539,18 +3469,18 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountJAN/10</t>
+          <t>Philly Fed EmploymentJAN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr">
         <is>
-          <t>588</t>
+          <t>6.6</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -3564,18 +3494,18 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>08:30 AM</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Fed Balance SheetJAN/08</t>
+          <t>Philly Fed New OrdersJAN</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr">
         <is>
-          <t>$6.85T</t>
+          <t>-4.3</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -3589,115 +3519,175 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Saturday January 11 2025</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Philly Fed Prices PaidJAN</t>
+        </is>
+      </c>
       <c r="C118" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>31.2</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sunday January 12 2025</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
+        </is>
+      </c>
       <c r="C119" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Monday January 13 2025</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr"/>
+          <t>08:30 AM</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Retail Sales YoYDEC</t>
+        </is>
+      </c>
       <c r="C120" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.8%</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.0%</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Consumer Inflation ExpectationsDEC</t>
+          <t>Business Inventories MoMNOV</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>3.1%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>NAHB Housing Market IndexJAN</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
       <c r="D122" t="inlineStr">
         <is>
-          <t>4.205%</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>11:30 AM</t>
+          <t>10:00 AM</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Retail Inventories Ex Autos MoMNOV</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr">
         <is>
-          <t>4.110%</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
+          <t>0.1%</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>0.6%</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G123" t="inlineStr">
         <is>
           <t>3</t>
@@ -3707,18 +3697,18 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - CornDEC</t>
+          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr">
         <is>
-          <t>1.760B</t>
+          <t>-40Bcf</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
@@ -3732,18 +3722,18 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - SoyDEC</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
       <c r="D125" t="inlineStr">
         <is>
-          <t>0.342B</t>
+          <t>4.245%</t>
         </is>
       </c>
       <c r="E125" t="inlineStr"/>
@@ -3757,18 +3747,18 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>11:30 AM</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Quarterly Grain Stocks - WheatDEC</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
       <c r="D126" t="inlineStr">
         <is>
-          <t>1.98B</t>
+          <t>4.240%</t>
         </is>
       </c>
       <c r="E126" t="inlineStr"/>
@@ -3782,68 +3772,64 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>02:00 PM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Monthly Budget StatementDEC</t>
+          <t>15-Year Mortgage RateJAN/16</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>$-367B</t>
-        </is>
-      </c>
+      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>$-220.0B</t>
-        </is>
-      </c>
+      <c r="F127" t="inlineStr"/>
       <c r="G127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Tuesday January 14 2025</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr"/>
+          <t>12:00 PM</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateJAN/16</t>
+        </is>
+      </c>
       <c r="C128" t="inlineStr"/>
-      <c r="D128" t="inlineStr"/>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>9.93%</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>04:30 PM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>NFIB Business Optimism IndexDEC</t>
+          <t>Fed Balance SheetJAN/15</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>101.7</t>
-        </is>
-      </c>
+      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>102</t>
-        </is>
-      </c>
+      <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
           <t>3</t>
@@ -3853,35 +3839,15 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>PPI MoMDEC</t>
-        </is>
-      </c>
+          <t>Friday January 17 2025</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr"/>
       <c r="C130" t="inlineStr"/>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3891,28 +3857,24 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Core PPI MoMDEC</t>
+          <t>Building Permits PrelDEC</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
       <c r="D131" t="inlineStr">
         <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+          <t>1.493M</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>1.48M</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3924,28 +3886,28 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Core PPI YoYDEC</t>
+          <t>Housing StartsDEC</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.289M</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>1.31M</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>1.32M</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -3957,24 +3919,24 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PPIDEC</t>
+          <t>Building Permits MoM PrelDEC</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
-          <t>146.493</t>
+          <t>5.2%</t>
         </is>
       </c>
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>146.8</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3986,81 +3948,85 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade MoMDEC</t>
+          <t>Housing Starts MoMDEC</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
       <c r="D134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>-1.8%</t>
         </is>
       </c>
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2%</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>PPI Ex Food, Energy and Trade YoYDEC</t>
+          <t>Industrial Production MoMDEC</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
       <c r="D135" t="inlineStr">
         <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr"/>
+          <t>-0.1%</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>08:30 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>PPI YoYDEC</t>
+          <t>Capacity UtilizationDEC</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>76.8%</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>3%</t>
+          <t>77.6%</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>3.2%</t>
+          <t>76.9%</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -4072,22 +4038,26 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>08:55 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Redbook YoYJAN/11</t>
+          <t>Industrial Production YoYDEC</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
       <c r="D137" t="inlineStr">
         <is>
-          <t>6.8%</t>
+          <t>-0.9%</t>
         </is>
       </c>
       <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>-0.5%</t>
+        </is>
+      </c>
       <c r="G137" t="inlineStr">
         <is>
           <t>3</t>
@@ -4097,45 +4067,53 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>10:00 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Fed Schmid Speech</t>
+          <t>Manufacturing Production MoMDEC</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
-      <c r="D138" t="inlineStr"/>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>10:05 AM</t>
+          <t>09:15 AM</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>RCM/TIPP Economic Optimism IndexJAN</t>
+          <t>Manufacturing Production YoYDEC</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>-1%</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>54.2</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -4147,12 +4125,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>03:05 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>Baker Hughes Oil Rig CountJAN/17</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -4161,88 +4139,96 @@
       <c r="F140" t="inlineStr"/>
       <c r="G140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeJAN/10</t>
+          <t>Baker Hughes Total Rigs CountJAN/17</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>-4.022M</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr"/>
       <c r="G141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Wednesday January 15 2025</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr"/>
+          <t>04:00 PM</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Net Long-term TIC FlowsNOV</t>
+        </is>
+      </c>
       <c r="C142" t="inlineStr"/>
-      <c r="D142" t="inlineStr"/>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>$152.3B</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateJAN/10</t>
+          <t>Foreign Bond InvestmentNOV</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
       <c r="D143" t="inlineStr">
         <is>
-          <t>6.99%</t>
+          <t>$92.1B</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
+          <t>04:00 PM</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsJAN/10</t>
+          <t>Overall Net Capital FlowsNOV</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
       <c r="D144" t="inlineStr">
         <is>
-          <t>-3.7%</t>
+          <t>$203.6B</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -4256,1769 +4242,15 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexJAN/10</t>
-        </is>
-      </c>
+          <t>Sunday January 19 2025</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr"/>
       <c r="C145" t="inlineStr"/>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>168.4</t>
-        </is>
-      </c>
+      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr"/>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>401.1</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>07:00 AM</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexJAN/10</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>127.7</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Fed Barkin Speech</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Core Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Inflation Rate MoMDEC</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr"/>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Inflation Rate YoYDEC</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr"/>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>2.9%</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>CPIDEC</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>315.49</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>315.6</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>CPI s.aDEC</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr"/>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>316.441</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>317.4</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr"/>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr"/>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>-0.959M</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>6.33M</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>0.278M</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr"/>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>-2.502M</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr"/>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>-0.167M</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>6.071M</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr"/>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>-0.081M</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr"/>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>-0.632M</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>0.045M</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Fed Williams Speech</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr"/>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr"/>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>4.190%</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Fed Golsbee Speech</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Thursday January 16 2025</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMDEC</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Export Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Import Prices MoMDEC</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsJAN/11</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>201K</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>209.0K</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexJAN</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>-16.4</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G175" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsJAN/04</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>1867K</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>1870.0K</t>
-        </is>
-      </c>
-      <c r="G176" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Export Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>0.8%</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Import Prices YoYDEC</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr"/>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>1.6%</t>
-        </is>
-      </c>
-      <c r="G178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageJAN/11</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr"/>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>213K</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr">
-        <is>
-          <t>215.0K</t>
-        </is>
-      </c>
-      <c r="G179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsJAN</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>30.7</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexJAN</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr"/>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>18.8</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentJAN</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr"/>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>6.6</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersJAN</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr"/>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>-4.3</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidJAN</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>31.2</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMDEC</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr"/>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYDEC</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr"/>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>3.8%</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMNOV</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G187" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexJAN</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr"/>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G188" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>10:00 AM</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMNOV</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr"/>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>0.6%</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeJAN/10</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>-40Bcf</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>4.245%</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>11:30 AM</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>4.240%</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateJAN/16</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>9.93%</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetJAN/15</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr"/>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>Friday January 17 2025</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr"/>
-      <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>Building Permits PrelDEC</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr"/>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>1.493M</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>1.48M</t>
-        </is>
-      </c>
-      <c r="G197" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>Housing StartsDEC</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>1.289M</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>1.31M</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>1.32M</t>
-        </is>
-      </c>
-      <c r="G198" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelDEC</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr"/>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>5.2%</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="G199" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>08:30 AM</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMDEC</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr"/>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>-1.8%</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G200" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G201" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationDEC</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr"/>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>76.8%</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>77.6%</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>76.9%</t>
-        </is>
-      </c>
-      <c r="G202" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr"/>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMDEC</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>09:15 AM</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYDEC</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr"/>
-      <c r="D205" t="inlineStr">
-        <is>
-          <t>-1%</t>
-        </is>
-      </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountJAN/17</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr"/>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountJAN/17</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsNOV</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr"/>
-      <c r="D208" t="inlineStr">
-        <is>
-          <t>$152.3B</t>
-        </is>
-      </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentNOV</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr"/>
-      <c r="D209" t="inlineStr">
-        <is>
-          <t>$92.1B</t>
-        </is>
-      </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>04:00 PM</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsNOV</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>$203.6B</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>Sunday January 19 2025</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr"/>
-      <c r="C211" t="inlineStr"/>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
